--- a/data/pca/factorExposure/factorExposure_2019-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1240931600324152</v>
+        <v>-0.0785111783906025</v>
       </c>
       <c r="C2">
-        <v>-0.0002518456575695871</v>
+        <v>0.03570292014381427</v>
       </c>
       <c r="D2">
-        <v>-0.0519611231124089</v>
+        <v>0.01220647965271365</v>
       </c>
       <c r="E2">
-        <v>-0.1162989784628856</v>
+        <v>0.04007937920634811</v>
       </c>
       <c r="F2">
-        <v>-0.1046726660649791</v>
+        <v>0.139909309850218</v>
       </c>
       <c r="G2">
-        <v>-0.0162905174532326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1030422727514011</v>
+      </c>
+      <c r="H2">
+        <v>-0.05742333606832528</v>
+      </c>
+      <c r="I2">
+        <v>0.0286412330908623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2231309261423453</v>
+        <v>-0.1687080737396277</v>
       </c>
       <c r="C3">
-        <v>-0.1188103415375655</v>
+        <v>0.0889924829498961</v>
       </c>
       <c r="D3">
-        <v>0.02427958421109468</v>
+        <v>-0.03590941530504528</v>
       </c>
       <c r="E3">
-        <v>-0.3293314684387232</v>
+        <v>-0.01395250099862105</v>
       </c>
       <c r="F3">
-        <v>-0.02097997344528354</v>
+        <v>0.3726258839660098</v>
       </c>
       <c r="G3">
-        <v>-0.1040518333006131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.0900165470489587</v>
+      </c>
+      <c r="H3">
+        <v>-0.281653815770504</v>
+      </c>
+      <c r="I3">
+        <v>0.1866152649513097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09656952505201218</v>
+        <v>-0.07517909471499996</v>
       </c>
       <c r="C4">
-        <v>-0.03650287752443962</v>
+        <v>0.03610997211927348</v>
       </c>
       <c r="D4">
-        <v>-0.02975548254579006</v>
+        <v>-0.02816699747015746</v>
       </c>
       <c r="E4">
-        <v>-0.07509211624221357</v>
+        <v>0.03606118180814232</v>
       </c>
       <c r="F4">
-        <v>-0.03663570546052542</v>
+        <v>0.08200260800822451</v>
       </c>
       <c r="G4">
-        <v>-0.03584841369230988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04688157992681347</v>
+      </c>
+      <c r="H4">
+        <v>-0.0262081994209846</v>
+      </c>
+      <c r="I4">
+        <v>0.03581645777595512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01776799654908849</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.00815058377361072</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009682718496372377</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005226229274368323</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00231603454028905</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02133030259442629</v>
+      </c>
+      <c r="H6">
+        <v>-0.0004730432356832819</v>
+      </c>
+      <c r="I6">
+        <v>-0.01197917080021529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04093760182452551</v>
+        <v>-0.03510875262856046</v>
       </c>
       <c r="C7">
-        <v>-0.009968290083348654</v>
+        <v>0.005487724232400436</v>
       </c>
       <c r="D7">
-        <v>-0.03724514228985495</v>
+        <v>-0.04030170338253603</v>
       </c>
       <c r="E7">
-        <v>-0.0731824043936245</v>
+        <v>0.02863782489350156</v>
       </c>
       <c r="F7">
-        <v>0.05419831001227279</v>
+        <v>0.05618516842366583</v>
       </c>
       <c r="G7">
-        <v>0.004598376427660209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006391214465004589</v>
+      </c>
+      <c r="H7">
+        <v>-0.04721911670068407</v>
+      </c>
+      <c r="I7">
+        <v>-0.002610773060239633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04295914524681722</v>
+        <v>-0.03103723103184045</v>
       </c>
       <c r="C8">
-        <v>-0.04673887275006657</v>
+        <v>0.04051992585912814</v>
       </c>
       <c r="D8">
-        <v>-0.007779045366859326</v>
+        <v>-0.02961956036948845</v>
       </c>
       <c r="E8">
-        <v>-0.06920108540437028</v>
+        <v>0.01668828644449849</v>
       </c>
       <c r="F8">
-        <v>-0.006910285730767654</v>
+        <v>0.07296838876886465</v>
       </c>
       <c r="G8">
-        <v>-0.01716443160051404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02180927136791774</v>
+      </c>
+      <c r="H8">
+        <v>-0.04714998497592528</v>
+      </c>
+      <c r="I8">
+        <v>0.03613171944711804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08474496635521937</v>
+        <v>-0.06255003161054842</v>
       </c>
       <c r="C9">
-        <v>-0.03598189080160949</v>
+        <v>0.03188394744617259</v>
       </c>
       <c r="D9">
-        <v>-0.03770850304327499</v>
+        <v>-0.0316568147111074</v>
       </c>
       <c r="E9">
-        <v>-0.05822198489158042</v>
+        <v>0.03243333755607777</v>
       </c>
       <c r="F9">
-        <v>-0.02463821729566995</v>
+        <v>0.08202888760321414</v>
       </c>
       <c r="G9">
-        <v>-0.05293342049831849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04263391991215956</v>
+      </c>
+      <c r="H9">
+        <v>-0.02192402460547063</v>
+      </c>
+      <c r="I9">
+        <v>0.0168020877506032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0005643589280634636</v>
+        <v>-0.02127615836406951</v>
       </c>
       <c r="C10">
-        <v>0.1565624748090171</v>
+        <v>-0.1415716863552247</v>
       </c>
       <c r="D10">
-        <v>0.01457281685248426</v>
+        <v>0.06517487370974474</v>
       </c>
       <c r="E10">
-        <v>-0.07255074138673451</v>
+        <v>-0.02286942619620694</v>
       </c>
       <c r="F10">
-        <v>-0.01495972952595258</v>
+        <v>0.07065642880520605</v>
       </c>
       <c r="G10">
-        <v>0.02250280622716875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02278631038113312</v>
+      </c>
+      <c r="H10">
+        <v>-0.003766221166255712</v>
+      </c>
+      <c r="I10">
+        <v>0.1091736206967929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0569952561985194</v>
+        <v>-0.04991468944170325</v>
       </c>
       <c r="C11">
-        <v>-0.009938580344754694</v>
+        <v>0.02709859643687601</v>
       </c>
       <c r="D11">
-        <v>0.005206780180357812</v>
+        <v>-0.00254742831894839</v>
       </c>
       <c r="E11">
-        <v>-0.04296980517787519</v>
+        <v>0.006855301011080161</v>
       </c>
       <c r="F11">
-        <v>-0.004671335361837463</v>
+        <v>0.04048989557665982</v>
       </c>
       <c r="G11">
-        <v>0.01880301590086884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006836307254356024</v>
+      </c>
+      <c r="H11">
+        <v>-0.002768729301436543</v>
+      </c>
+      <c r="I11">
+        <v>-0.009504072563500613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04422290480785477</v>
+        <v>-0.04682537181628602</v>
       </c>
       <c r="C12">
-        <v>-0.01622450046403358</v>
+        <v>0.02142438548144154</v>
       </c>
       <c r="D12">
-        <v>0.003548953282906209</v>
+        <v>-0.01205187989916052</v>
       </c>
       <c r="E12">
-        <v>-0.03092795022481879</v>
+        <v>0.009189081998869076</v>
       </c>
       <c r="F12">
-        <v>0.003908462938047505</v>
+        <v>0.0179140009152018</v>
       </c>
       <c r="G12">
-        <v>-0.002652596367470954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001156822114689526</v>
+      </c>
+      <c r="H12">
+        <v>-0.003161506970733291</v>
+      </c>
+      <c r="I12">
+        <v>-0.01050413961389859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06199721021367292</v>
+        <v>-0.04316169250041123</v>
       </c>
       <c r="C13">
-        <v>-0.0223980374039336</v>
+        <v>0.0289308547647408</v>
       </c>
       <c r="D13">
-        <v>0.004222454183394338</v>
+        <v>0.005482285588218037</v>
       </c>
       <c r="E13">
-        <v>-0.1102249432340143</v>
+        <v>0.008327201150923542</v>
       </c>
       <c r="F13">
-        <v>-0.01399940090437516</v>
+        <v>0.1045401541575348</v>
       </c>
       <c r="G13">
-        <v>0.001723768638903093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02067564535875001</v>
+      </c>
+      <c r="H13">
+        <v>-0.04768748805612297</v>
+      </c>
+      <c r="I13">
+        <v>0.01122215886649604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03231502734696235</v>
+        <v>-0.02769184744906461</v>
       </c>
       <c r="C14">
-        <v>-0.01157223060898714</v>
+        <v>0.01335877643255379</v>
       </c>
       <c r="D14">
-        <v>-0.02789621716610009</v>
+        <v>-0.01076028578267128</v>
       </c>
       <c r="E14">
-        <v>-0.02672803431348168</v>
+        <v>0.02490292170127925</v>
       </c>
       <c r="F14">
-        <v>-0.009101437046159115</v>
+        <v>0.04091168539594898</v>
       </c>
       <c r="G14">
-        <v>0.0314053504653229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03007767456079704</v>
+      </c>
+      <c r="H14">
+        <v>-0.05337785506919982</v>
+      </c>
+      <c r="I14">
+        <v>0.01039910419557946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04684194686483937</v>
+        <v>-0.04473669352370427</v>
       </c>
       <c r="C16">
-        <v>-0.02602532498758044</v>
+        <v>0.03292037779596979</v>
       </c>
       <c r="D16">
-        <v>0.009991494495784044</v>
+        <v>-0.01128186699338844</v>
       </c>
       <c r="E16">
-        <v>-0.0357511304265497</v>
+        <v>0.003347267244461962</v>
       </c>
       <c r="F16">
-        <v>0.006755010184791596</v>
+        <v>0.03436554720884489</v>
       </c>
       <c r="G16">
-        <v>0.005473710906598366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005141619455959837</v>
+      </c>
+      <c r="H16">
+        <v>-0.009230157424760591</v>
+      </c>
+      <c r="I16">
+        <v>-0.009601568202687198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.04896180646824812</v>
+        <v>-0.04759946701359713</v>
       </c>
       <c r="C19">
-        <v>-0.03509780533736536</v>
+        <v>0.04056752641017664</v>
       </c>
       <c r="D19">
-        <v>0.0003512909371734886</v>
+        <v>-0.01431811579271866</v>
       </c>
       <c r="E19">
-        <v>-0.07708807854171632</v>
+        <v>0.0166530307491938</v>
       </c>
       <c r="F19">
-        <v>0.01759790218518539</v>
+        <v>0.08212981626216523</v>
       </c>
       <c r="G19">
-        <v>0.0279284926574395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01024258373975929</v>
+      </c>
+      <c r="H19">
+        <v>-0.08463042371643387</v>
+      </c>
+      <c r="I19">
+        <v>0.03516582923841258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03709908515318689</v>
+        <v>-0.01901029537239477</v>
       </c>
       <c r="C20">
-        <v>-0.04013339854900574</v>
+        <v>0.02649257749929656</v>
       </c>
       <c r="D20">
-        <v>-0.01899591455615804</v>
+        <v>-0.01784259368732309</v>
       </c>
       <c r="E20">
-        <v>-0.06435082660964579</v>
+        <v>0.01867994072209418</v>
       </c>
       <c r="F20">
-        <v>0.0141502942979549</v>
+        <v>0.06657394587261035</v>
       </c>
       <c r="G20">
-        <v>0.01187059581267232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01342720882050734</v>
+      </c>
+      <c r="H20">
+        <v>-0.07217220612744946</v>
+      </c>
+      <c r="I20">
+        <v>0.0204314801311877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03735143247567397</v>
+        <v>-0.0246098192800055</v>
       </c>
       <c r="C21">
-        <v>-0.02633155095064444</v>
+        <v>0.02383105135170259</v>
       </c>
       <c r="D21">
-        <v>-0.01026133842009464</v>
+        <v>-0.02586672627950935</v>
       </c>
       <c r="E21">
-        <v>-0.09785654110203923</v>
+        <v>0.006681255984027458</v>
       </c>
       <c r="F21">
-        <v>-0.04854744516112867</v>
+        <v>0.07837111593862001</v>
       </c>
       <c r="G21">
-        <v>0.01400282697654498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.035250531782133</v>
+      </c>
+      <c r="H21">
+        <v>-0.02530559411116114</v>
+      </c>
+      <c r="I21">
+        <v>-0.009812185483774553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04875547026565097</v>
+        <v>-0.04389195028804013</v>
       </c>
       <c r="C24">
-        <v>-0.01749634582082986</v>
+        <v>0.02172542330847532</v>
       </c>
       <c r="D24">
-        <v>0.0008334407836685856</v>
+        <v>-0.006800910978122294</v>
       </c>
       <c r="E24">
-        <v>-0.04434791505690237</v>
+        <v>0.00833417748065602</v>
       </c>
       <c r="F24">
-        <v>0.005654796961222334</v>
+        <v>0.04071157033546259</v>
       </c>
       <c r="G24">
-        <v>-0.001769997236637958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004137529464344322</v>
+      </c>
+      <c r="H24">
+        <v>-0.008175948497970795</v>
+      </c>
+      <c r="I24">
+        <v>-0.007230915892286204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05035555965820875</v>
+        <v>-0.04653476691001849</v>
       </c>
       <c r="C25">
-        <v>-0.007854293462057875</v>
+        <v>0.02207688242595419</v>
       </c>
       <c r="D25">
-        <v>0.002241928573659252</v>
+        <v>-0.005562443590360301</v>
       </c>
       <c r="E25">
-        <v>-0.04192337013893047</v>
+        <v>0.007362170214108344</v>
       </c>
       <c r="F25">
-        <v>-0.006672045315063178</v>
+        <v>0.04452636553694875</v>
       </c>
       <c r="G25">
-        <v>0.008699326642375577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.00358126828296388</v>
+      </c>
+      <c r="H25">
+        <v>-0.0004151126974185454</v>
+      </c>
+      <c r="I25">
+        <v>-0.01001176391860823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01612417437506184</v>
+        <v>-0.01605902333374949</v>
       </c>
       <c r="C26">
-        <v>-0.02723292279979978</v>
+        <v>0.02466488090255013</v>
       </c>
       <c r="D26">
-        <v>-0.004393177038487217</v>
+        <v>-0.005643765964142793</v>
       </c>
       <c r="E26">
-        <v>-0.03395712594573217</v>
+        <v>0.0005820777043648848</v>
       </c>
       <c r="F26">
-        <v>-0.01753498554028161</v>
+        <v>0.04543959405329969</v>
       </c>
       <c r="G26">
-        <v>0.02554024441221449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01999586302446764</v>
+      </c>
+      <c r="H26">
+        <v>-0.03237995198368643</v>
+      </c>
+      <c r="I26">
+        <v>-0.003538447111644792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.115579139889266</v>
+        <v>-0.08022960157005941</v>
       </c>
       <c r="C27">
-        <v>-0.02984762907399323</v>
+        <v>0.02803821231282078</v>
       </c>
       <c r="D27">
-        <v>-0.03026003559710214</v>
+        <v>-0.01353933881072891</v>
       </c>
       <c r="E27">
-        <v>-0.0980007964712292</v>
+        <v>0.03318615458668656</v>
       </c>
       <c r="F27">
-        <v>-0.008896373637901805</v>
+        <v>0.06938489211717708</v>
       </c>
       <c r="G27">
-        <v>-0.008624925668216753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01703614259213663</v>
+      </c>
+      <c r="H27">
+        <v>-0.0112682095478314</v>
+      </c>
+      <c r="I27">
+        <v>0.0210202839194916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.005847264278872916</v>
+        <v>-0.03955255463167849</v>
       </c>
       <c r="C28">
-        <v>0.2431278428891011</v>
+        <v>-0.2184170045312458</v>
       </c>
       <c r="D28">
-        <v>0.01791615886690045</v>
+        <v>0.08984065409578011</v>
       </c>
       <c r="E28">
-        <v>-0.04546143912624035</v>
+        <v>-0.0369751835901983</v>
       </c>
       <c r="F28">
-        <v>-0.01969123879610087</v>
+        <v>0.05611149826633101</v>
       </c>
       <c r="G28">
-        <v>0.003817356934419824</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02348159442583644</v>
+      </c>
+      <c r="H28">
+        <v>0.002319095798811688</v>
+      </c>
+      <c r="I28">
+        <v>0.1547503624702729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02162174593250304</v>
+        <v>-0.02242547683891692</v>
       </c>
       <c r="C29">
-        <v>-0.01985176324815061</v>
+        <v>0.01505428804841926</v>
       </c>
       <c r="D29">
-        <v>-0.03335861310870629</v>
+        <v>-0.01657236057963333</v>
       </c>
       <c r="E29">
-        <v>-0.02771995362451473</v>
+        <v>0.02645147464764863</v>
       </c>
       <c r="F29">
-        <v>-0.01488030938812576</v>
+        <v>0.03680664673240258</v>
       </c>
       <c r="G29">
-        <v>0.02439727873269989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03090052917983856</v>
+      </c>
+      <c r="H29">
+        <v>-0.04962909081731437</v>
+      </c>
+      <c r="I29">
+        <v>0.003758905636515949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.103385735171687</v>
+        <v>-0.09270301754616032</v>
       </c>
       <c r="C30">
-        <v>-0.01685364397604475</v>
+        <v>0.05557837393491912</v>
       </c>
       <c r="D30">
-        <v>-0.02349251428450679</v>
+        <v>0.02069239573481145</v>
       </c>
       <c r="E30">
-        <v>-0.1102849786757833</v>
+        <v>0.03086022579099874</v>
       </c>
       <c r="F30">
-        <v>9.981767976879312e-05</v>
+        <v>0.1031585044620538</v>
       </c>
       <c r="G30">
-        <v>0.03620026315075472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01446668899263007</v>
+      </c>
+      <c r="H30">
+        <v>-0.02006059193336893</v>
+      </c>
+      <c r="I30">
+        <v>-0.009975932146263333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06106937720481082</v>
+        <v>-0.06243616859536745</v>
       </c>
       <c r="C31">
-        <v>-0.01654961983259364</v>
+        <v>0.02305425338364599</v>
       </c>
       <c r="D31">
-        <v>-0.0221824280415057</v>
+        <v>0.003519256327006585</v>
       </c>
       <c r="E31">
-        <v>0.01865634059503303</v>
+        <v>0.02155466584489281</v>
       </c>
       <c r="F31">
-        <v>-0.0104127155577577</v>
+        <v>0.002465079502526928</v>
       </c>
       <c r="G31">
-        <v>0.05758719959762884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04220294594293478</v>
+      </c>
+      <c r="H31">
+        <v>-0.03320633044027423</v>
+      </c>
+      <c r="I31">
+        <v>0.009974794809486938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.067038959271964</v>
+        <v>-0.04570552309541581</v>
       </c>
       <c r="C32">
-        <v>-0.0296247141082317</v>
+        <v>0.03953431983208561</v>
       </c>
       <c r="D32">
-        <v>-0.01120001744492511</v>
+        <v>-0.03046962039857158</v>
       </c>
       <c r="E32">
-        <v>-0.1082023337979822</v>
+        <v>0.0266505405042307</v>
       </c>
       <c r="F32">
-        <v>0.01151820702265419</v>
+        <v>0.08777364189583182</v>
       </c>
       <c r="G32">
-        <v>0.02299802735681588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01412270279328395</v>
+      </c>
+      <c r="H32">
+        <v>-0.04070737923213041</v>
+      </c>
+      <c r="I32">
+        <v>0.02522952912135332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06885296275416931</v>
+        <v>-0.05886121540911526</v>
       </c>
       <c r="C33">
-        <v>-0.03923216699764799</v>
+        <v>0.05392714644366296</v>
       </c>
       <c r="D33">
-        <v>-0.01141607167842382</v>
+        <v>-0.0002399788445397699</v>
       </c>
       <c r="E33">
-        <v>-0.07234306697703488</v>
+        <v>0.008384193725477733</v>
       </c>
       <c r="F33">
-        <v>-0.04474735153654794</v>
+        <v>0.07831549798674617</v>
       </c>
       <c r="G33">
-        <v>0.01566786239992331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03546586772616146</v>
+      </c>
+      <c r="H33">
+        <v>-0.03834458311622798</v>
+      </c>
+      <c r="I33">
+        <v>-0.01133091567360001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04784658090611298</v>
+        <v>-0.04663744994921815</v>
       </c>
       <c r="C34">
-        <v>-0.01774090851145097</v>
+        <v>0.0279605267692587</v>
       </c>
       <c r="D34">
-        <v>-0.0004695759789225717</v>
+        <v>-0.01414550199061116</v>
       </c>
       <c r="E34">
-        <v>-0.02673713169201506</v>
+        <v>0.01398598379972538</v>
       </c>
       <c r="F34">
-        <v>0.005985215662957539</v>
+        <v>0.03143082088113001</v>
       </c>
       <c r="G34">
-        <v>0.008582811064351785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>6.617365454818146e-05</v>
+      </c>
+      <c r="H34">
+        <v>-0.01206067933987661</v>
+      </c>
+      <c r="I34">
+        <v>-0.008637798441333052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01356540307175293</v>
+        <v>-0.01595579777150177</v>
       </c>
       <c r="C36">
-        <v>0.00621148285395226</v>
+        <v>0.0003804282921709905</v>
       </c>
       <c r="D36">
-        <v>-0.009366800502763574</v>
+        <v>-0.005069342054141907</v>
       </c>
       <c r="E36">
-        <v>-0.02278020669397082</v>
+        <v>0.009681902940774962</v>
       </c>
       <c r="F36">
-        <v>-0.006755540606842305</v>
+        <v>0.02878191491200368</v>
       </c>
       <c r="G36">
-        <v>0.01945060077705695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02393024352795379</v>
+      </c>
+      <c r="H36">
+        <v>-0.02817999022981629</v>
+      </c>
+      <c r="I36">
+        <v>-0.00454653324248934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05700976472379145</v>
+        <v>-0.03545068579768967</v>
       </c>
       <c r="C38">
-        <v>-0.01292095310840581</v>
+        <v>0.01303914426045324</v>
       </c>
       <c r="D38">
-        <v>-0.02659078608860136</v>
+        <v>-0.007996384262188089</v>
       </c>
       <c r="E38">
-        <v>-0.03268379319107135</v>
+        <v>0.01301439177094285</v>
       </c>
       <c r="F38">
-        <v>-0.003413108085637962</v>
+        <v>0.0511770940646049</v>
       </c>
       <c r="G38">
-        <v>-0.02651875783114972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02808195261307006</v>
+      </c>
+      <c r="H38">
+        <v>-0.01336325159030959</v>
+      </c>
+      <c r="I38">
+        <v>-0.01344249406147393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07327142078952452</v>
+        <v>-0.05840921302499177</v>
       </c>
       <c r="C39">
-        <v>-0.015410470162714</v>
+        <v>0.03966801650678066</v>
       </c>
       <c r="D39">
-        <v>-0.005213749085302955</v>
+        <v>-0.008848189886687416</v>
       </c>
       <c r="E39">
-        <v>-0.04417274690221112</v>
+        <v>0.01605499610341213</v>
       </c>
       <c r="F39">
-        <v>-0.01781713485741031</v>
+        <v>0.05639134169705199</v>
       </c>
       <c r="G39">
-        <v>0.007787716371702225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01688014835150434</v>
+      </c>
+      <c r="H39">
+        <v>-0.0003718178773765438</v>
+      </c>
+      <c r="I39">
+        <v>-0.03100779307137308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07356530216188038</v>
+        <v>-0.05800637895938428</v>
       </c>
       <c r="C40">
-        <v>-0.03684412980726859</v>
+        <v>0.04566826054672568</v>
       </c>
       <c r="D40">
-        <v>-0.01163549417671152</v>
+        <v>0.00528140904928673</v>
       </c>
       <c r="E40">
-        <v>-0.1061533309764837</v>
+        <v>0.0222789910134622</v>
       </c>
       <c r="F40">
-        <v>-0.02976063334504239</v>
+        <v>0.09584669205696494</v>
       </c>
       <c r="G40">
-        <v>-0.03458571846344556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02271411604038803</v>
+      </c>
+      <c r="H40">
+        <v>-0.05360781607827515</v>
+      </c>
+      <c r="I40">
+        <v>0.01366966981743342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004684063211174923</v>
+        <v>-0.003069217420500973</v>
       </c>
       <c r="C41">
-        <v>-0.01415070565296839</v>
+        <v>0.01009279548834504</v>
       </c>
       <c r="D41">
-        <v>-0.02480390363151153</v>
+        <v>-0.005034102314066853</v>
       </c>
       <c r="E41">
-        <v>-0.0148420252696816</v>
+        <v>0.007737260490940574</v>
       </c>
       <c r="F41">
-        <v>-0.03145798311312631</v>
+        <v>0.01536528613368802</v>
       </c>
       <c r="G41">
-        <v>0.0284697479958404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03735523692271611</v>
+      </c>
+      <c r="H41">
+        <v>-0.03319202133246579</v>
+      </c>
+      <c r="I41">
+        <v>0.02197087601650989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.141892328707005</v>
+        <v>-0.2201487644968594</v>
       </c>
       <c r="C42">
-        <v>-0.1954611365658628</v>
+        <v>0.1915289315484172</v>
       </c>
       <c r="D42">
-        <v>0.9318731522745543</v>
+        <v>-0.01102795005727948</v>
       </c>
       <c r="E42">
-        <v>0.05852666689422723</v>
+        <v>-0.929282195097718</v>
       </c>
       <c r="F42">
-        <v>0.03453606280916582</v>
+        <v>-0.1465204515468603</v>
       </c>
       <c r="G42">
-        <v>0.07582487728890544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.002636790978069172</v>
+      </c>
+      <c r="H42">
+        <v>-0.005191853387803999</v>
+      </c>
+      <c r="I42">
+        <v>0.04923921321423044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006236057400709312</v>
+        <v>-0.005620069838671811</v>
       </c>
       <c r="C43">
-        <v>-0.01748242276733245</v>
+        <v>0.01439651878515765</v>
       </c>
       <c r="D43">
-        <v>-0.01846000899257517</v>
+        <v>-0.003838333512463516</v>
       </c>
       <c r="E43">
-        <v>-0.03671082741747965</v>
+        <v>0.008350444887482624</v>
       </c>
       <c r="F43">
-        <v>-0.006725738469634183</v>
+        <v>0.02968194434313001</v>
       </c>
       <c r="G43">
-        <v>0.01995711698514219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02091727434044431</v>
+      </c>
+      <c r="H43">
+        <v>-0.03207385325703557</v>
+      </c>
+      <c r="I43">
+        <v>0.01470217141122696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03830001622852764</v>
+        <v>-0.02865915276877764</v>
       </c>
       <c r="C44">
-        <v>-0.0457986072971748</v>
+        <v>0.03828058445806117</v>
       </c>
       <c r="D44">
-        <v>-0.01613521583730009</v>
+        <v>-0.01691903525855554</v>
       </c>
       <c r="E44">
-        <v>-0.1231294245963638</v>
+        <v>0.009424806942862001</v>
       </c>
       <c r="F44">
-        <v>-0.08868313681028442</v>
+        <v>0.1230812077369865</v>
       </c>
       <c r="G44">
-        <v>0.03614060306801127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06291604587793809</v>
+      </c>
+      <c r="H44">
+        <v>-0.1030550746380051</v>
+      </c>
+      <c r="I44">
+        <v>0.02285178930513041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02583398089900074</v>
+        <v>-0.02536744695825768</v>
       </c>
       <c r="C46">
-        <v>-0.01779598073059923</v>
+        <v>0.03291890959030436</v>
       </c>
       <c r="D46">
-        <v>-0.03166792749079654</v>
+        <v>-0.01108052982242313</v>
       </c>
       <c r="E46">
-        <v>-0.02486364450317387</v>
+        <v>0.02713098354306041</v>
       </c>
       <c r="F46">
-        <v>-0.02311329082253032</v>
+        <v>0.04626589793544886</v>
       </c>
       <c r="G46">
-        <v>0.02978228241621578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02646466186119933</v>
+      </c>
+      <c r="H46">
+        <v>-0.0533917677858767</v>
+      </c>
+      <c r="I46">
+        <v>0.0009731189861245512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08748857546175724</v>
+        <v>-0.09172217650765573</v>
       </c>
       <c r="C47">
-        <v>-0.01109594063135588</v>
+        <v>0.01772946588306543</v>
       </c>
       <c r="D47">
-        <v>-0.02124043252182782</v>
+        <v>0.0007484313408224811</v>
       </c>
       <c r="E47">
-        <v>0.02327194087962203</v>
+        <v>0.02499946013008151</v>
       </c>
       <c r="F47">
-        <v>-0.008021482101931546</v>
+        <v>-0.01145397011867993</v>
       </c>
       <c r="G47">
-        <v>0.03171180165946593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04343774775581981</v>
+      </c>
+      <c r="H47">
+        <v>-0.05736683941921488</v>
+      </c>
+      <c r="I47">
+        <v>0.0154017582243425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01810747469328519</v>
+        <v>-0.01910245821186353</v>
       </c>
       <c r="C48">
-        <v>-0.02023510388817697</v>
+        <v>0.01858872995321014</v>
       </c>
       <c r="D48">
-        <v>-0.01783491356459384</v>
+        <v>-0.009022085470117338</v>
       </c>
       <c r="E48">
-        <v>-0.02711661874011758</v>
+        <v>0.01291186083466251</v>
       </c>
       <c r="F48">
-        <v>-0.009094942532431578</v>
+        <v>0.03071664293800255</v>
       </c>
       <c r="G48">
-        <v>0.007746117126331722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01530642616396534</v>
+      </c>
+      <c r="H48">
+        <v>-0.02314705177472883</v>
+      </c>
+      <c r="I48">
+        <v>0.01134103094651136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08703254459590336</v>
+        <v>-0.08829293291945577</v>
       </c>
       <c r="C50">
-        <v>-0.03851837323276728</v>
+        <v>0.03142796384056876</v>
       </c>
       <c r="D50">
-        <v>-0.02913708503536814</v>
+        <v>-0.02267656872316922</v>
       </c>
       <c r="E50">
-        <v>0.01495190137278209</v>
+        <v>0.02310897957236757</v>
       </c>
       <c r="F50">
-        <v>0.002388880970139643</v>
+        <v>-0.00350264863457171</v>
       </c>
       <c r="G50">
-        <v>0.03846862281921318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.002477098539639813</v>
+      </c>
+      <c r="H50">
+        <v>-0.04074315824986938</v>
+      </c>
+      <c r="I50">
+        <v>-0.01038103791038018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.06268263786098714</v>
+        <v>-0.04553297160098471</v>
       </c>
       <c r="C51">
-        <v>0.0250161398873456</v>
+        <v>-7.44927972818751e-05</v>
       </c>
       <c r="D51">
-        <v>0.003353359901929312</v>
+        <v>0.01583996165490026</v>
       </c>
       <c r="E51">
-        <v>-0.0838511804278822</v>
+        <v>0.008767788781074483</v>
       </c>
       <c r="F51">
-        <v>-0.04375274868293278</v>
+        <v>0.09323364217598329</v>
       </c>
       <c r="G51">
-        <v>0.06341191967928757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05217765325550366</v>
+      </c>
+      <c r="H51">
+        <v>-0.05678241915607473</v>
+      </c>
+      <c r="I51">
+        <v>0.02961313793715852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1459856280633062</v>
+        <v>-0.1274999593191538</v>
       </c>
       <c r="C53">
-        <v>-0.01079557671273918</v>
+        <v>0.03524980841069012</v>
       </c>
       <c r="D53">
-        <v>-0.04540942510658727</v>
+        <v>-0.004306983834330906</v>
       </c>
       <c r="E53">
-        <v>0.05197660716760315</v>
+        <v>0.04777439807797306</v>
       </c>
       <c r="F53">
-        <v>0.009897105045382664</v>
+        <v>-0.0409327034914465</v>
       </c>
       <c r="G53">
-        <v>0.03683751530029068</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02350969791358263</v>
+      </c>
+      <c r="H53">
+        <v>-0.001530093385580582</v>
+      </c>
+      <c r="I53">
+        <v>0.03607248674027631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02899817410751246</v>
+        <v>-0.02619308660261018</v>
       </c>
       <c r="C54">
-        <v>-0.001169148897285376</v>
+        <v>0.001067257248134575</v>
       </c>
       <c r="D54">
-        <v>-0.03736798019025907</v>
+        <v>-0.005355322746202819</v>
       </c>
       <c r="E54">
-        <v>-0.03153914655753599</v>
+        <v>0.02724576550434864</v>
       </c>
       <c r="F54">
-        <v>-0.04696881536684386</v>
+        <v>0.0381845322426697</v>
       </c>
       <c r="G54">
-        <v>0.01629729153786797</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05228710958130838</v>
+      </c>
+      <c r="H54">
+        <v>-0.04173225509183171</v>
+      </c>
+      <c r="I54">
+        <v>0.02854999156216321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1013244266638256</v>
+        <v>-0.1016674709199901</v>
       </c>
       <c r="C55">
-        <v>0.002484048632414876</v>
+        <v>0.01589757433310802</v>
       </c>
       <c r="D55">
-        <v>-0.03633263211968808</v>
+        <v>-0.01648020285971438</v>
       </c>
       <c r="E55">
-        <v>0.01308153213491994</v>
+        <v>0.03095282433683877</v>
       </c>
       <c r="F55">
-        <v>0.03711651076858157</v>
+        <v>-0.02952419816533121</v>
       </c>
       <c r="G55">
-        <v>-0.009158695468000633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005528864961213116</v>
+      </c>
+      <c r="H55">
+        <v>-0.01463662665132385</v>
+      </c>
+      <c r="I55">
+        <v>0.01648200560616344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1800864125608093</v>
+        <v>-0.1691300030021216</v>
       </c>
       <c r="C56">
-        <v>0.01243737094892725</v>
+        <v>0.01457279759399979</v>
       </c>
       <c r="D56">
-        <v>-0.07682175009319017</v>
+        <v>-0.004244187233058313</v>
       </c>
       <c r="E56">
-        <v>0.09858593230475844</v>
+        <v>0.08388913441062931</v>
       </c>
       <c r="F56">
-        <v>0.08202763601765407</v>
+        <v>-0.08768571449894513</v>
       </c>
       <c r="G56">
-        <v>3.725919296150129e-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02692553240548421</v>
+      </c>
+      <c r="H56">
+        <v>0.04020360983064721</v>
+      </c>
+      <c r="I56">
+        <v>0.02858863349344083</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.09401074403697671</v>
+        <v>-0.07144743621025154</v>
       </c>
       <c r="C57">
-        <v>-0.02739550079035636</v>
+        <v>0.03799510345571334</v>
       </c>
       <c r="D57">
-        <v>-0.02643413295128037</v>
+        <v>0.005335542867703374</v>
       </c>
       <c r="E57">
-        <v>-0.03928678762000605</v>
+        <v>0.01208251144598461</v>
       </c>
       <c r="F57">
-        <v>-0.02867210439891488</v>
+        <v>0.06051617799187738</v>
       </c>
       <c r="G57">
-        <v>0.04445646342315453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02473335618900915</v>
+      </c>
+      <c r="H57">
+        <v>-0.02801938987667088</v>
+      </c>
+      <c r="I57">
+        <v>-0.008156942971061934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1757879000942835</v>
+        <v>-0.2041352952855316</v>
       </c>
       <c r="C58">
-        <v>-0.02286641859056067</v>
+        <v>0.1162861450936456</v>
       </c>
       <c r="D58">
-        <v>0.03148504381167266</v>
+        <v>0.05226267998573583</v>
       </c>
       <c r="E58">
-        <v>-0.1269207491264183</v>
+        <v>-0.008006951398619754</v>
       </c>
       <c r="F58">
-        <v>0.06556389108744923</v>
+        <v>0.2404895771075406</v>
       </c>
       <c r="G58">
-        <v>0.03798094059320673</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1602546645402891</v>
+      </c>
+      <c r="H58">
+        <v>-0.3544019890172392</v>
+      </c>
+      <c r="I58">
+        <v>-0.1507341117610053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.01458405235952051</v>
+        <v>-0.03989871477820488</v>
       </c>
       <c r="C59">
-        <v>0.2002363434431632</v>
+        <v>-0.1758429658081493</v>
       </c>
       <c r="D59">
-        <v>-0.01042013981674877</v>
+        <v>0.09241838329318165</v>
       </c>
       <c r="E59">
-        <v>-0.06324914436503852</v>
+        <v>0.0005641185928002918</v>
       </c>
       <c r="F59">
-        <v>-0.009673086994652288</v>
+        <v>0.07299093560183623</v>
       </c>
       <c r="G59">
-        <v>0.007786502240185516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.00236945309238836</v>
+      </c>
+      <c r="H59">
+        <v>0.01912315777355783</v>
+      </c>
+      <c r="I59">
+        <v>0.06132263608468288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1883942597907043</v>
+        <v>-0.1853007731958775</v>
       </c>
       <c r="C60">
-        <v>0.09566703298439905</v>
+        <v>-0.02513448837373892</v>
       </c>
       <c r="D60">
-        <v>-0.01014115102790295</v>
+        <v>0.06588294168466956</v>
       </c>
       <c r="E60">
-        <v>-0.1882501461835061</v>
+        <v>0.01257641514644875</v>
       </c>
       <c r="F60">
-        <v>-0.04901814057439129</v>
+        <v>0.2041447728270248</v>
       </c>
       <c r="G60">
-        <v>0.003737627113261488</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07995835354440038</v>
+      </c>
+      <c r="H60">
+        <v>0.2723832510191786</v>
+      </c>
+      <c r="I60">
+        <v>-0.09338234582701063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.05078760930878628</v>
+        <v>-0.040026080958065</v>
       </c>
       <c r="C61">
-        <v>-0.004348186334149836</v>
+        <v>0.02336761661643143</v>
       </c>
       <c r="D61">
-        <v>0.001779290076336979</v>
+        <v>-0.009428334077379912</v>
       </c>
       <c r="E61">
-        <v>-0.04079224109665795</v>
+        <v>0.005936715641576005</v>
       </c>
       <c r="F61">
-        <v>-0.005446095564035278</v>
+        <v>0.03954575560356575</v>
       </c>
       <c r="G61">
-        <v>0.004992827149150634</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008931929105913556</v>
+      </c>
+      <c r="H61">
+        <v>0.002892596936947715</v>
+      </c>
+      <c r="I61">
+        <v>-0.0349563426603715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04759781528297337</v>
+        <v>-0.03120742272458186</v>
       </c>
       <c r="C63">
-        <v>-0.004828726647980654</v>
+        <v>0.01747532045600223</v>
       </c>
       <c r="D63">
-        <v>-0.02341023043225718</v>
+        <v>-0.00543924031862636</v>
       </c>
       <c r="E63">
-        <v>-0.03517972289819723</v>
+        <v>0.01301490955953886</v>
       </c>
       <c r="F63">
-        <v>-0.002161390836960206</v>
+        <v>0.02884645137089705</v>
       </c>
       <c r="G63">
-        <v>0.02732345278557555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01160738425743468</v>
+      </c>
+      <c r="H63">
+        <v>-0.05082193020777385</v>
+      </c>
+      <c r="I63">
+        <v>0.03442769527449597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.08069854817709335</v>
+        <v>-0.05777633375768699</v>
       </c>
       <c r="C64">
-        <v>-0.04845269335359308</v>
+        <v>0.04081465120683318</v>
       </c>
       <c r="D64">
-        <v>-0.0642336698382687</v>
+        <v>-0.03086027090121578</v>
       </c>
       <c r="E64">
-        <v>-0.05976617991303003</v>
+        <v>0.04216777828859183</v>
       </c>
       <c r="F64">
-        <v>-0.05831843315049248</v>
+        <v>0.05084973895966388</v>
       </c>
       <c r="G64">
-        <v>-0.02923172558074729</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05364388595705378</v>
+      </c>
+      <c r="H64">
+        <v>0.002695923345427342</v>
+      </c>
+      <c r="I64">
+        <v>0.03158264340482928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01970885180766762</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.00763029176196869</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0101251196793658</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005570456049162295</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001224334112039633</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02162216397361796</v>
+      </c>
+      <c r="H65">
+        <v>0.002890449853124823</v>
+      </c>
+      <c r="I65">
+        <v>-0.0137410808307662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.09209937376743668</v>
+        <v>-0.0696700761352145</v>
       </c>
       <c r="C66">
-        <v>-0.02967299948951751</v>
+        <v>0.05558970439542294</v>
       </c>
       <c r="D66">
-        <v>-0.03950428416821934</v>
+        <v>-0.006547674742814982</v>
       </c>
       <c r="E66">
-        <v>-0.07947990621430001</v>
+        <v>0.04435821589341758</v>
       </c>
       <c r="F66">
-        <v>-0.03965586304010142</v>
+        <v>0.07036637815903787</v>
       </c>
       <c r="G66">
-        <v>0.01706002252848742</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01446560021666891</v>
+      </c>
+      <c r="H66">
+        <v>0.0008528427724612812</v>
+      </c>
+      <c r="I66">
+        <v>-0.03948005039321985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.06383998301052009</v>
+        <v>-0.0472000893445533</v>
       </c>
       <c r="C67">
-        <v>0.01172199599433743</v>
+        <v>-0.002200261323728288</v>
       </c>
       <c r="D67">
-        <v>-0.0127984443287089</v>
+        <v>0.002961383884112134</v>
       </c>
       <c r="E67">
-        <v>-0.02837487537472407</v>
+        <v>0.01084785283525029</v>
       </c>
       <c r="F67">
-        <v>-0.007525650345513413</v>
+        <v>0.04011517097759437</v>
       </c>
       <c r="G67">
-        <v>-0.03645606707842423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03466077483765219</v>
+      </c>
+      <c r="H67">
+        <v>0.009122800016334757</v>
+      </c>
+      <c r="I67">
+        <v>-0.04028405605284958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.01649949671638329</v>
+        <v>-0.04667699714907898</v>
       </c>
       <c r="C68">
-        <v>0.2476908705012746</v>
+        <v>-0.2151856657051192</v>
       </c>
       <c r="D68">
-        <v>0.005461676778081694</v>
+        <v>0.1051178741871949</v>
       </c>
       <c r="E68">
-        <v>-0.04333580719744236</v>
+        <v>-0.01472420629918756</v>
       </c>
       <c r="F68">
-        <v>-0.002462893818791663</v>
+        <v>0.0549595017770301</v>
       </c>
       <c r="G68">
-        <v>0.02389558554569777</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.002945024558430372</v>
+      </c>
+      <c r="H68">
+        <v>0.01432935353537287</v>
+      </c>
+      <c r="I68">
+        <v>0.1668602696913395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07436600844061778</v>
+        <v>-0.07303515253779867</v>
       </c>
       <c r="C69">
-        <v>-0.01340208273547039</v>
+        <v>0.02156978577179328</v>
       </c>
       <c r="D69">
-        <v>-0.02399785891843917</v>
+        <v>-0.0009341229510185541</v>
       </c>
       <c r="E69">
-        <v>0.0198140781428322</v>
+        <v>0.03069559037137304</v>
       </c>
       <c r="F69">
-        <v>0.001144644340071111</v>
+        <v>-0.001957624885175928</v>
       </c>
       <c r="G69">
-        <v>0.02979262243498911</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02696687932674248</v>
+      </c>
+      <c r="H69">
+        <v>-0.02746358450273688</v>
+      </c>
+      <c r="I69">
+        <v>-0.005441186338759763</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.01641075568406017</v>
+        <v>-0.05228013177781635</v>
       </c>
       <c r="C71">
-        <v>0.2754269030986783</v>
+        <v>-0.22566586331706</v>
       </c>
       <c r="D71">
-        <v>0.009462846084418003</v>
+        <v>0.1174647952280046</v>
       </c>
       <c r="E71">
-        <v>-0.08177268338374907</v>
+        <v>-0.03388068820471699</v>
       </c>
       <c r="F71">
-        <v>-0.01179673189666023</v>
+        <v>0.07915808967744979</v>
       </c>
       <c r="G71">
-        <v>0.03253490620921144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01175638587675252</v>
+      </c>
+      <c r="H71">
+        <v>0.02856591408136467</v>
+      </c>
+      <c r="I71">
+        <v>0.1276036854935308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1174183552270486</v>
+        <v>-0.1235159010317643</v>
       </c>
       <c r="C72">
-        <v>0.002517372254318043</v>
+        <v>0.02830540752417092</v>
       </c>
       <c r="D72">
-        <v>-0.03961692931512703</v>
+        <v>-0.001164960539703151</v>
       </c>
       <c r="E72">
-        <v>-0.09954945751074956</v>
+        <v>0.06039518075360032</v>
       </c>
       <c r="F72">
-        <v>0.009929967864906191</v>
+        <v>0.0831900154530871</v>
       </c>
       <c r="G72">
-        <v>-0.02130757240276778</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0388898728309469</v>
+      </c>
+      <c r="H72">
+        <v>0.01585904908852975</v>
+      </c>
+      <c r="I72">
+        <v>-0.06568054650684836</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2880439273519134</v>
+        <v>-0.2704450730141579</v>
       </c>
       <c r="C73">
-        <v>0.1622888095229069</v>
+        <v>-0.04505214569841376</v>
       </c>
       <c r="D73">
-        <v>0.04125681573501386</v>
+        <v>0.1227777398288635</v>
       </c>
       <c r="E73">
-        <v>-0.3398788807763851</v>
+        <v>-0.02958781136089534</v>
       </c>
       <c r="F73">
-        <v>-0.0402155824608659</v>
+        <v>0.3069112832883771</v>
       </c>
       <c r="G73">
-        <v>-0.03835588957487335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1845274474328115</v>
+      </c>
+      <c r="H73">
+        <v>0.4718166717934956</v>
+      </c>
+      <c r="I73">
+        <v>-0.2814000888134124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1622441904165286</v>
+        <v>-0.1517423022213374</v>
       </c>
       <c r="C74">
-        <v>0.00151122544612168</v>
+        <v>0.02567251630309962</v>
       </c>
       <c r="D74">
-        <v>-0.041790600865234</v>
+        <v>0.006585486137949736</v>
       </c>
       <c r="E74">
-        <v>0.02094394248138545</v>
+        <v>0.04637130427472547</v>
       </c>
       <c r="F74">
-        <v>0.06044731821408614</v>
+        <v>-0.05417573654295987</v>
       </c>
       <c r="G74">
-        <v>0.04831860147621729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01675308668772475</v>
+      </c>
+      <c r="H74">
+        <v>0.02488657031932554</v>
+      </c>
+      <c r="I74">
+        <v>0.01625565615813479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2344858390690348</v>
+        <v>-0.2426457492338932</v>
       </c>
       <c r="C75">
-        <v>0.008144924977574967</v>
+        <v>0.02498228938427408</v>
       </c>
       <c r="D75">
-        <v>-0.0650810080709905</v>
+        <v>0.02242288872721036</v>
       </c>
       <c r="E75">
-        <v>0.1252781356733484</v>
+        <v>0.103803685670932</v>
       </c>
       <c r="F75">
-        <v>0.03961833437688102</v>
+        <v>-0.1477529839101312</v>
       </c>
       <c r="G75">
-        <v>0.04346320674869975</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006895062272490105</v>
+      </c>
+      <c r="H75">
+        <v>0.01418326907302302</v>
+      </c>
+      <c r="I75">
+        <v>0.09097847723951633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.244528651527882</v>
+        <v>-0.2664755849287005</v>
       </c>
       <c r="C76">
-        <v>0.011730311912519</v>
+        <v>0.01069348831158398</v>
       </c>
       <c r="D76">
-        <v>-0.1015400551607445</v>
+        <v>-0.01235360666948803</v>
       </c>
       <c r="E76">
-        <v>0.1326946849866058</v>
+        <v>0.1275161378019515</v>
       </c>
       <c r="F76">
-        <v>0.07852726909974611</v>
+        <v>-0.1818704246472276</v>
       </c>
       <c r="G76">
-        <v>0.03706716304981113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05152205876092142</v>
+      </c>
+      <c r="H76">
+        <v>0.03917683463564485</v>
+      </c>
+      <c r="I76">
+        <v>0.02302228137756984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1387278583605228</v>
+        <v>-0.128118557961833</v>
       </c>
       <c r="C77">
-        <v>-0.03121618642660127</v>
+        <v>0.06292763240953325</v>
       </c>
       <c r="D77">
-        <v>0.03013179674539931</v>
+        <v>-0.01344847287248425</v>
       </c>
       <c r="E77">
-        <v>-0.1376311319606708</v>
+        <v>-0.03432331589872333</v>
       </c>
       <c r="F77">
-        <v>-0.01708909953893861</v>
+        <v>0.1604245595040283</v>
       </c>
       <c r="G77">
-        <v>-0.04516027274458835</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.003426772871423674</v>
+      </c>
+      <c r="H77">
+        <v>-0.2265636448556192</v>
+      </c>
+      <c r="I77">
+        <v>0.2103818261961614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08538643174825544</v>
+        <v>-0.08216316530501001</v>
       </c>
       <c r="C78">
-        <v>-0.04345890957004914</v>
+        <v>0.06800748512627364</v>
       </c>
       <c r="D78">
-        <v>0.01595748061667359</v>
+        <v>-0.03128073028831216</v>
       </c>
       <c r="E78">
-        <v>-0.04913788269767181</v>
+        <v>0.007594224312837399</v>
       </c>
       <c r="F78">
-        <v>-0.007309602636480959</v>
+        <v>0.07345063041211806</v>
       </c>
       <c r="G78">
-        <v>0.01637543211743326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01310762756018012</v>
+      </c>
+      <c r="H78">
+        <v>-0.02619828533678953</v>
+      </c>
+      <c r="I78">
+        <v>0.02670945618315887</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.06314198363301736</v>
+        <v>-0.1487608003948516</v>
       </c>
       <c r="C80">
-        <v>-0.01586564656825066</v>
+        <v>-0.4078016652492724</v>
       </c>
       <c r="D80">
-        <v>0.03271370336712411</v>
+        <v>-0.8835301161769783</v>
       </c>
       <c r="E80">
-        <v>0.03198837776760186</v>
+        <v>-0.0566809189798703</v>
       </c>
       <c r="F80">
-        <v>0.1336275545848145</v>
+        <v>0.05027930048962174</v>
       </c>
       <c r="G80">
-        <v>-0.942091457802915</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04286994988186986</v>
+      </c>
+      <c r="H80">
+        <v>0.05862821508727327</v>
+      </c>
+      <c r="I80">
+        <v>-0.02723004228194672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1658850141691062</v>
+        <v>-0.1785873316064586</v>
       </c>
       <c r="C81">
-        <v>0.009277652323997953</v>
+        <v>0.006320642486393106</v>
       </c>
       <c r="D81">
-        <v>-0.05805473986536988</v>
+        <v>0.005614314036679882</v>
       </c>
       <c r="E81">
-        <v>0.1627107396394335</v>
+        <v>0.0845570098535</v>
       </c>
       <c r="F81">
-        <v>0.1020909779242501</v>
+        <v>-0.1629971693626307</v>
       </c>
       <c r="G81">
-        <v>0.03471703566554246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02824712896162499</v>
+      </c>
+      <c r="H81">
+        <v>0.006124333462505539</v>
+      </c>
+      <c r="I81">
+        <v>0.05634096437775119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09369321276461257</v>
+        <v>-0.06925215043433286</v>
       </c>
       <c r="C83">
-        <v>-0.04968749553513411</v>
+        <v>0.05059518530672354</v>
       </c>
       <c r="D83">
-        <v>0.07292640514913949</v>
+        <v>-0.004390170221443297</v>
       </c>
       <c r="E83">
-        <v>-0.01119903908819695</v>
+        <v>-0.03794135527159646</v>
       </c>
       <c r="F83">
-        <v>-0.05759311823718682</v>
+        <v>0.04567642136273349</v>
       </c>
       <c r="G83">
-        <v>0.02346275608703171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05951343457758638</v>
+      </c>
+      <c r="H83">
+        <v>-0.02424792440821901</v>
+      </c>
+      <c r="I83">
+        <v>0.0238329210323183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2331355358223394</v>
+        <v>-0.2509213497791821</v>
       </c>
       <c r="C85">
-        <v>-0.04958621186816646</v>
+        <v>0.04868417136620214</v>
       </c>
       <c r="D85">
-        <v>-0.06058202242453668</v>
+        <v>-0.0107846648183239</v>
       </c>
       <c r="E85">
-        <v>0.1619170694398428</v>
+        <v>0.08950309932945535</v>
       </c>
       <c r="F85">
-        <v>0.06250917987629535</v>
+        <v>-0.1852648451968093</v>
       </c>
       <c r="G85">
-        <v>0.01953308761666443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.003453833568361743</v>
+      </c>
+      <c r="H85">
+        <v>-0.02200938916503686</v>
+      </c>
+      <c r="I85">
+        <v>0.04690540910363371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04105199485693162</v>
+        <v>-0.02689136406641357</v>
       </c>
       <c r="C86">
-        <v>-0.05130219533681828</v>
+        <v>0.06085695850090422</v>
       </c>
       <c r="D86">
-        <v>-0.01723745552031736</v>
+        <v>-0.02585463134493309</v>
       </c>
       <c r="E86">
-        <v>-0.06379870411733453</v>
+        <v>0.01141746559298347</v>
       </c>
       <c r="F86">
-        <v>0.002307447619602528</v>
+        <v>0.06867010616115951</v>
       </c>
       <c r="G86">
-        <v>0.03016365914585804</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006807212414379005</v>
+      </c>
+      <c r="H86">
+        <v>-0.0658011730834344</v>
+      </c>
+      <c r="I86">
+        <v>0.02831511015468979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02508292184376174</v>
+        <v>-0.03551293974315211</v>
       </c>
       <c r="C87">
-        <v>0.05101257320281122</v>
+        <v>-0.009695582336138811</v>
       </c>
       <c r="D87">
-        <v>-0.006811259274130873</v>
+        <v>0.008911837921121381</v>
       </c>
       <c r="E87">
-        <v>-0.09124956373064244</v>
+        <v>0.004726571919518973</v>
       </c>
       <c r="F87">
-        <v>0.02403464813133325</v>
+        <v>0.1010630322345853</v>
       </c>
       <c r="G87">
-        <v>0.02340643573798312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02258248660397822</v>
+      </c>
+      <c r="H87">
+        <v>-0.01537722456578339</v>
+      </c>
+      <c r="I87">
+        <v>-0.02006508498004479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03754391045355953</v>
+        <v>-0.02890487093904305</v>
       </c>
       <c r="C88">
-        <v>-0.03274839968825346</v>
+        <v>0.01521665074661002</v>
       </c>
       <c r="D88">
-        <v>-0.009217818832835381</v>
+        <v>-0.0190190426457835</v>
       </c>
       <c r="E88">
-        <v>0.01037663373746382</v>
+        <v>0.01561419301504019</v>
       </c>
       <c r="F88">
-        <v>0.01347023603869476</v>
+        <v>-0.01287505697047753</v>
       </c>
       <c r="G88">
-        <v>0.006728355923431742</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03542045196637895</v>
+      </c>
+      <c r="H88">
+        <v>-0.03556315111449124</v>
+      </c>
+      <c r="I88">
+        <v>-0.02513060973608068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.006215592515620348</v>
+        <v>-0.0661432823071659</v>
       </c>
       <c r="C89">
-        <v>0.416281869682765</v>
+        <v>-0.3474989624323394</v>
       </c>
       <c r="D89">
-        <v>0.09203630856307272</v>
+        <v>0.1879827525178768</v>
       </c>
       <c r="E89">
-        <v>0.0003671150019905751</v>
+        <v>-0.05666107534908224</v>
       </c>
       <c r="F89">
-        <v>-0.01178212529619144</v>
+        <v>0.03866216400276334</v>
       </c>
       <c r="G89">
-        <v>0.04855037082135791</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04102956769096619</v>
+      </c>
+      <c r="H89">
+        <v>-0.05247855643950804</v>
+      </c>
+      <c r="I89">
+        <v>0.263088053991334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.009963032131597219</v>
+        <v>-0.04692153823790859</v>
       </c>
       <c r="C90">
-        <v>0.3093458270395946</v>
+        <v>-0.3030361347773676</v>
       </c>
       <c r="D90">
-        <v>0.03478525237239462</v>
+        <v>0.1450274628929615</v>
       </c>
       <c r="E90">
-        <v>-0.0424133434406847</v>
+        <v>-0.04052110814614982</v>
       </c>
       <c r="F90">
-        <v>-0.0157860539918639</v>
+        <v>0.03573424199467443</v>
       </c>
       <c r="G90">
-        <v>0.04358238197663437</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02199757284329829</v>
+      </c>
+      <c r="H90">
+        <v>-0.01071690933331418</v>
+      </c>
+      <c r="I90">
+        <v>0.2294092277510129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2838498090543924</v>
+        <v>-0.2989206983930554</v>
       </c>
       <c r="C91">
-        <v>-0.02742678403871232</v>
+        <v>0.04031570920109279</v>
       </c>
       <c r="D91">
-        <v>-0.07247747245225417</v>
+        <v>0.004277820481879261</v>
       </c>
       <c r="E91">
-        <v>0.2931475961850675</v>
+        <v>0.08831685219960771</v>
       </c>
       <c r="F91">
-        <v>0.1076986909119172</v>
+        <v>-0.2913507911133069</v>
       </c>
       <c r="G91">
-        <v>-0.01585494606894329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02353145870113207</v>
+      </c>
+      <c r="H91">
+        <v>0.004786826377321063</v>
+      </c>
+      <c r="I91">
+        <v>0.1110857581937201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.01735433196455894</v>
+        <v>-0.1030351568265099</v>
       </c>
       <c r="C92">
-        <v>0.4210649275534486</v>
+        <v>-0.404568888215733</v>
       </c>
       <c r="D92">
-        <v>0.1840604883404138</v>
+        <v>0.1668554973712863</v>
       </c>
       <c r="E92">
-        <v>0.1167369600212658</v>
+        <v>-0.07594217469276</v>
       </c>
       <c r="F92">
-        <v>0.06449403424942972</v>
+        <v>-0.116319146550079</v>
       </c>
       <c r="G92">
-        <v>-0.1198238178898406</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08774405389871771</v>
+      </c>
+      <c r="H92">
+        <v>-0.4324599974625909</v>
+      </c>
+      <c r="I92">
+        <v>-0.6917950077589898</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.006034197148033709</v>
+        <v>-0.05138203116047776</v>
       </c>
       <c r="C93">
-        <v>0.3761340582859334</v>
+        <v>-0.3620328102512857</v>
       </c>
       <c r="D93">
-        <v>0.06566511369194108</v>
+        <v>0.1887148644038578</v>
       </c>
       <c r="E93">
-        <v>0.02542589646079791</v>
+        <v>-0.0724701060708085</v>
       </c>
       <c r="F93">
-        <v>0.005277449528595443</v>
+        <v>0.005179212294050195</v>
       </c>
       <c r="G93">
-        <v>-0.03403199748520119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03512824960964486</v>
+      </c>
+      <c r="H93">
+        <v>0.01959414485202116</v>
+      </c>
+      <c r="I93">
+        <v>0.1646644633876643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.275316130935789</v>
+        <v>-0.3048810829197595</v>
       </c>
       <c r="C94">
-        <v>0.06538509621681519</v>
+        <v>0.0008413255897765534</v>
       </c>
       <c r="D94">
-        <v>-0.03192496103335938</v>
+        <v>0.04514211674946772</v>
       </c>
       <c r="E94">
-        <v>0.3457894391250335</v>
+        <v>0.1302805620217836</v>
       </c>
       <c r="F94">
-        <v>0.4030154095660755</v>
+        <v>-0.3429590142800267</v>
       </c>
       <c r="G94">
-        <v>0.1158794715345969</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2072968587557317</v>
+      </c>
+      <c r="H94">
+        <v>-0.1313543287881717</v>
+      </c>
+      <c r="I94">
+        <v>0.02865035446204298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1992048866271408</v>
+        <v>-0.1310347280411669</v>
       </c>
       <c r="C95">
-        <v>0.02940278313887246</v>
+        <v>0.07270241320447074</v>
       </c>
       <c r="D95">
-        <v>0.007444176560585547</v>
+        <v>0.07454008604064853</v>
       </c>
       <c r="E95">
-        <v>0.3803069808012606</v>
+        <v>0.03553484004502865</v>
       </c>
       <c r="F95">
-        <v>-0.8416926026790744</v>
+        <v>-0.0718381451208786</v>
       </c>
       <c r="G95">
-        <v>-0.09239439521208676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8951592447522376</v>
+      </c>
+      <c r="H95">
+        <v>0.1860666208047614</v>
+      </c>
+      <c r="I95">
+        <v>-0.09911000221641195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2264862752456475</v>
+        <v>-0.20979141734293</v>
       </c>
       <c r="C98">
-        <v>0.1183630579841756</v>
+        <v>-0.03424697834216815</v>
       </c>
       <c r="D98">
-        <v>0.05521145173461226</v>
+        <v>0.08739959970742264</v>
       </c>
       <c r="E98">
-        <v>-0.09734736587502842</v>
+        <v>-0.02889333463091111</v>
       </c>
       <c r="F98">
-        <v>-0.04940823868504735</v>
+        <v>0.1590096097967971</v>
       </c>
       <c r="G98">
-        <v>0.04037266632788072</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08726227274081949</v>
+      </c>
+      <c r="H98">
+        <v>0.3251171047027959</v>
+      </c>
+      <c r="I98">
+        <v>-0.15340213025828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02133078417623668</v>
+        <v>-0.01622223903772085</v>
       </c>
       <c r="C101">
-        <v>-0.02023986563652337</v>
+        <v>0.0270264641232355</v>
       </c>
       <c r="D101">
-        <v>-0.03492285884764922</v>
+        <v>-0.01736912393868747</v>
       </c>
       <c r="E101">
-        <v>-0.02816437551997436</v>
+        <v>0.03359836989432253</v>
       </c>
       <c r="F101">
-        <v>-0.01469331813778174</v>
+        <v>0.06669887543680725</v>
       </c>
       <c r="G101">
-        <v>0.02442146223711388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01777243822129475</v>
+      </c>
+      <c r="H101">
+        <v>-0.1085372565772472</v>
+      </c>
+      <c r="I101">
+        <v>-0.04514408378626766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1209181487209765</v>
+        <v>-0.1199018874606899</v>
       </c>
       <c r="C102">
-        <v>-0.01533497490130914</v>
+        <v>0.02123136524496507</v>
       </c>
       <c r="D102">
-        <v>-0.0393488162363089</v>
+        <v>-0.0108357730055269</v>
       </c>
       <c r="E102">
-        <v>0.08828197320994299</v>
+        <v>0.0526487110872868</v>
       </c>
       <c r="F102">
-        <v>0.006883014233606546</v>
+        <v>-0.09646481631012783</v>
       </c>
       <c r="G102">
-        <v>-0.01252033394476047</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01741524126866555</v>
+      </c>
+      <c r="H102">
+        <v>0.01807532144477584</v>
+      </c>
+      <c r="I102">
+        <v>0.0509562191187333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01975325745219752</v>
+        <v>-0.03260032959198764</v>
       </c>
       <c r="C103">
-        <v>-0.0007809331044369061</v>
+        <v>0.003765458600508125</v>
       </c>
       <c r="D103">
-        <v>-0.01400668541799816</v>
+        <v>-0.01008983008560483</v>
       </c>
       <c r="E103">
-        <v>0.03166235864078768</v>
+        <v>0.02186282630458995</v>
       </c>
       <c r="F103">
-        <v>0.01439694676983536</v>
+        <v>-0.02940226836100967</v>
       </c>
       <c r="G103">
-        <v>0.01460632224466584</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01325840930345309</v>
+      </c>
+      <c r="H103">
+        <v>-0.01573926444983735</v>
+      </c>
+      <c r="I103">
+        <v>0.03203524193876561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
